--- a/output/combined_arrivals_2026-02-18.xlsx
+++ b/output/combined_arrivals_2026-02-18.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2026-02-18 00:21</t>
+          <t>2026-02-18 00:28</t>
         </is>
       </c>
     </row>

--- a/output/combined_arrivals_2026-02-18.xlsx
+++ b/output/combined_arrivals_2026-02-18.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Sydney" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Melbourne" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Last Updated" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,7 +502,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -545,7 +544,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -587,7 +586,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -629,7 +628,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -671,7 +670,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -713,7 +712,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -755,7 +754,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -797,7 +796,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -839,7 +838,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -881,7 +880,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -923,7 +922,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -965,7 +964,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1006,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1048,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1090,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1132,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1174,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1216,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1258,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1300,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1342,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1435,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1472,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1509,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1546,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1583,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1620,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1657,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1694,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1731,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1768,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1805,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1842,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1879,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1916,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1953,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1990,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2027,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2064,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2101,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2138,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2175,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2212,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2249,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2286,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2323,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2360,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2397,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2434,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2471,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2508,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2545,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2582,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2619,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2656,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2693,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2730,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2768,7 +2767,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2804,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2842,7 +2841,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2878,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2915,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2952,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -2990,7 +2989,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3026,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3063,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3100,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3138,7 +3137,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3175,7 +3174,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3212,7 +3211,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3248,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3285,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3322,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3359,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3396,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3433,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3470,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3508,7 +3507,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3545,7 +3544,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3582,7 +3581,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3618,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3655,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3692,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3729,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3766,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3804,7 +3803,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3840,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3878,7 +3877,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3914,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3951,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3988,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4025,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4062,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -4100,7 +4099,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4136,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4173,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4210,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -4248,7 +4247,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4284,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4321,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -4359,7 +4358,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4395,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4432,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>
@@ -4470,38 +4469,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2026-02-18 00:28</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Last Updated</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>2026-02-18 00:28</t>
+          <t>2026-02-18 00:40</t>
         </is>
       </c>
     </row>

--- a/output/combined_arrivals_2026-02-18.xlsx
+++ b/output/combined_arrivals_2026-02-18.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,37 +472,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Atlantic Dawn</t>
+          <t>Celebrity Edge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sat 21 Feb16:00</t>
+          <t>Sun 22 Feb04:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Port Douglas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Glebe Island 1 (GLB1)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>General Cargo Ship</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -514,12 +514,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Celebrity Edge</t>
+          <t>Arcadia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sun 22 Feb04:30</t>
+          <t>Sun 22 Feb04:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -529,12 +529,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Port Douglas</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Athol Bay Anchorage (ATH4A)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -556,37 +556,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arcadia</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sun 22 Feb04:45</t>
+          <t>Sun 22 Feb09:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Athol Bay Anchorage (ATH4A)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -598,37 +598,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sun 22 Feb09:30</t>
+          <t>Mon 23 Feb04:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Australia Offshore</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -640,37 +640,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Hafnia Raven</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mon 23 Feb04:45</t>
+          <t>Mon 23 Feb06:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Gore Cove 1 (GOR1)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Tanker (unspecified)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -682,37 +682,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hafnia Raven</t>
+          <t>Seabourn Sojourn</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mon 23 Feb06:00</t>
+          <t>Tue 24 Feb05:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>06:55</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Stewart Island</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gore Cove 1 (GOR1)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tanker (unspecified)</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -724,12 +724,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Seabourn Sojourn</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tue 24 Feb05:00</t>
+          <t>Thu 26 Feb05:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Stewart Island</t>
+          <t>Port Chalmers</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -766,27 +766,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Viking Orion</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Thu 26 Feb05:00</t>
+          <t>Thu 26 Feb06:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -808,37 +808,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Viking Orion</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Thu 26 Feb06:00</t>
+          <t>Thu 26 Feb08:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -850,37 +850,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Anthem of the Seas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Thu 26 Feb08:30</t>
+          <t>Fri 27 Feb04:45</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -892,27 +892,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Anthem of the Seas</t>
+          <t>Carnival Adventure</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fri 27 Feb04:45</t>
+          <t>Sat 28 Feb02:15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>03:05</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tauranga</t>
+          <t>Hobart</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -934,27 +934,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Carnival Adventure</t>
+          <t>Discovery Princess</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sat 28 Feb02:15</t>
+          <t>Sat 28 Feb04:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>03:05</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Port Chalmers</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -976,37 +976,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Discovery Princess</t>
+          <t>Beatrice Bush</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sat 28 Feb04:30</t>
+          <t>Sat 28 Feb12:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Port Chalmers</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Passenger/Cruise</t>
+          <t>Other Activities, Inland Waterways</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1018,37 +1018,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Beatrice Bush</t>
+          <t>Carnival Splendor</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sat 28 Feb12:00</t>
+          <t>Sun 1 Mar05:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Australia Offshore</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Other Activities, Inland Waterways</t>
+          <t>Passenger/Cruise</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1060,27 +1060,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Carnival Splendor</t>
+          <t>Crystal Serenity</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sun 1 Mar05:00</t>
+          <t>Sun 1 Mar06:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>06:15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Australia Offshore</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>Athol Bay Anchorage (ATH4A)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1102,27 +1102,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Crystal Serenity</t>
+          <t>Coral Princess</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sun 1 Mar06:00</t>
+          <t>Mon 2 Mar04:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Milford Sound</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Athol Bay Anchorage (ATH4A)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1144,27 +1144,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Coral Princess</t>
+          <t>Azamara Onward</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mon 2 Mar04:30</t>
+          <t>Mon 2 Mar06:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>06:45</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Milford Sound</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
+          <t>White Bay Cruise Terminal (WHT5)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Azamara Onward</t>
+          <t>Amera</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1201,12 +1201,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>White Bay Cruise Terminal (WHT5)</t>
+          <t>White Bay 4 (WHT4)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1228,27 +1228,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Amera</t>
+          <t>MSC Magnifica</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mon 2 Mar06:00</t>
+          <t>Tue 3 Mar05:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>White Bay 4 (WHT4)</t>
+          <t>Overseas Passenger Terminal (SCPT)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1270,22 +1270,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MSC Magnifica</t>
+          <t>Queen Mary 2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tue 3 Mar05:00</t>
+          <t>Wed 4 Mar04:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Tauranga</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1300,49 +1300,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Queen Mary 2</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Wed 4 Mar04:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>04:30</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Tauranga</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Overseas Passenger Terminal (SCPT)</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Passenger/Cruise</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1393,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1430,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1467,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1504,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1541,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1578,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1615,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1652,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1689,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1726,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1763,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1800,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1837,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1874,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1911,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1948,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2027,7 +1985,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2022,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2059,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2096,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2133,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2170,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2207,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2244,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2281,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2318,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2355,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2392,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2429,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2466,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2503,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2582,7 +2540,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2577,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2614,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2693,7 +2651,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2730,7 +2688,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2767,7 +2725,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2762,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2799,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2878,7 +2836,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2873,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2910,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2947,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3026,7 +2984,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3021,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3100,7 +3058,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3095,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3174,7 +3132,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3169,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3248,7 +3206,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3243,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3280,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3317,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3354,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3391,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3470,7 +3428,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3465,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3502,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3539,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3618,7 +3576,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3613,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3692,7 +3650,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3687,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3724,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3803,7 +3761,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3840,7 +3798,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3835,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3872,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3909,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -3988,7 +3946,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -4025,7 +3983,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -4062,7 +4020,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4057,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -4136,7 +4094,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -4173,7 +4131,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4168,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4205,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -4284,7 +4242,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4279,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -4358,7 +4316,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -4395,7 +4353,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4390,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4427,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2026-02-18 00:40</t>
+          <t>2026-02-18 01:02</t>
         </is>
       </c>
     </row>
